--- a/doc/20_基本設計/画面系/【CMS】基本設計-画面遷移図.xlsx
+++ b/doc/20_基本設計/画面系/【CMS】基本設計-画面遷移図.xlsx
@@ -1,26 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josaw\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{272F014A-8CAE-4648-9817-388832F4B872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="11220" yWindow="405" windowWidth="14460" windowHeight="14535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="タイトル" sheetId="1" r:id="rId1"/>
+    <sheet name="履歴情報" sheetId="2" r:id="rId2"/>
+    <sheet name="画面遷移図" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">タイトル!$A$1:$X$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">履歴情報!$A$1:$F$44</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>項番</t>
+    <rPh sb="0" eb="2">
+      <t>コウバン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>概要</t>
+    <rPh sb="0" eb="2">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当者</t>
+    <rPh sb="0" eb="3">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>初期作成</t>
+    <rPh sb="0" eb="4">
+      <t>ショキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プロジェクト：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成者：</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成日：</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面遷移図</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>センイズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>機能：</t>
+    <rPh sb="0" eb="2">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　　</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>汎例</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面間ブリッジ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面ブロック</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>EB 徐</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>泽锴</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">EB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐泽锴</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>プロジェクト：CMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+チーム：EB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>徐泽锴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+　作成日：20230411</t>
+    </r>
+    <rPh sb="23" eb="25">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CMS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +259,106 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -45,15 +366,427 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +799,2089 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>146477</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>245088</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>27551</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637F92F2-286C-46A1-B1CE-B33775146F3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4250886" y="4634595"/>
+          <a:ext cx="2904157" cy="830865"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ログイン画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381907</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>81644</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>517072</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直線矢印コネクタ 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE64676A-17B8-4B30-AEC6-DB05407C3F4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12791621" y="2639787"/>
+          <a:ext cx="1060451" cy="5443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>398236</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>125187</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130630</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C465DEC0-7F6F-4BA2-8D23-EFC677E2BC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12807950" y="3136901"/>
+          <a:ext cx="1060451" cy="5443"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>166256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>360218</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="101" name="フローチャート: 他ページ結合子 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B7A765-E610-4A98-8A34-7910BA135538}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12995563" y="4391892"/>
+          <a:ext cx="734291" cy="651163"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>249382</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>651165</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>55418</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97823E3F-5B6B-468B-A947-F816CB2AD761}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12690764" y="5652654"/>
+          <a:ext cx="1330037" cy="512619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>XX</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>879878</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7422</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1005403" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="テキスト ボックス 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2A8CC8-2DC7-4800-93D2-E5E36F3A0EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4049105" y="5895604"/>
+          <a:ext cx="1005403" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ログイン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>160069</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3032234" cy="813954"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27F94DEF-893D-6740-6798-9D23528E86B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4264478" y="6736773"/>
+          <a:ext cx="3032234" cy="813954"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3200" b="1"/>
+            <a:t>社員マイページ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96EA9A05-45D9-792B-5509-41BCB092891F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5403273" y="5524500"/>
+          <a:ext cx="0" cy="1212273"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>155864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>69272</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D914D1B8-92DF-4087-7346-3E61E0C5B78D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6044045" y="5593773"/>
+          <a:ext cx="0" cy="1091045"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1210588" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4823A9F-644F-46D8-9AD4-F0F8AEC271E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6269182" y="5870864"/>
+          <a:ext cx="1210588" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706582</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>225136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805194</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>186627</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="グループ化 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D713978-85DD-9D49-F375-F1E9AF6CEE16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7616537" y="8728363"/>
+          <a:ext cx="2904157" cy="5053037"/>
+          <a:chOff x="5902037" y="8745682"/>
+          <a:chExt cx="2904157" cy="5053037"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="正方形/長方形 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0061541-EE9E-4DFA-84B5-30B4015B5AE7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5902037" y="8745682"/>
+            <a:ext cx="2904157" cy="830865"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>資格取得計画画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="正方形/長方形 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40C5F209-341D-4289-ACE2-FF15CF9223EE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5902037" y="12967854"/>
+            <a:ext cx="2904157" cy="830865"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>人事用資格一覧画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="13" name="正方形/長方形 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CEB317B-F917-4E5F-A9FE-6999823C11DA}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5902037" y="11560464"/>
+            <a:ext cx="2904157" cy="830865"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>部下情報一覧表画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="15" name="正方形/長方形 14">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EED8F4D-0024-4271-865C-1B057EC907F1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5902037" y="10153073"/>
+            <a:ext cx="2904157" cy="830865"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>資格登録画面</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>741005</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706583</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155659</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="コネクタ: カギ線 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8AF0A18-33A3-DA25-0775-64CD135BCDB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5902032" y="7429290"/>
+          <a:ext cx="1593069" cy="1835942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>741004</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17318</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706582</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108323</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="コネクタ: カギ線 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45543573-3D22-0AE0-B96F-775EAD9C3B86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="15" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="5198336" y="8132986"/>
+          <a:ext cx="3000460" cy="1835942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>741005</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706583</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60986</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="コネクタ: カギ線 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8703AEF8-D07D-D77B-AA47-C2D74755C759}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="4494641" y="8836681"/>
+          <a:ext cx="4407851" cy="1835942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>741005</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>17317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>706583</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13649</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="コネクタ: カギ線 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE742C03-3844-7A9A-C3C3-DD2B02620B16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="2"/>
+          <a:endCxn id="11" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="3790946" y="9540376"/>
+          <a:ext cx="5815241" cy="1835942"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>793173</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1826141" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9875B899-2B69-4234-8F7E-4D0F26536ECA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5832764" y="8343900"/>
+          <a:ext cx="1826141" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>資格取得計画作成</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>270163</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1005403" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00039774-82B2-42E6-9A19-A696C712C060}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6244936" y="10072254"/>
+          <a:ext cx="1005403" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>資格登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1415772" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF9BA0C2-4C35-4260-9A56-67E59685D5DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6009409" y="11481954"/>
+          <a:ext cx="1415772" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>部下情報一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>883228</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1620957" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B588BB5-886B-4D05-B5AF-566C4E30B231}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922819" y="12867409"/>
+          <a:ext cx="1620957" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>人事用資格一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>204355</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>41563</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="フローチャート: 他ページ結合子 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10D5D515-E0B6-4B6A-BE5F-07B51FB7F479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11776364" y="14495318"/>
+          <a:ext cx="949036" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>187036</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>200890</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="フローチャート: 他ページ結合子 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040C57BB-CFC0-46FE-9C21-265064679980}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5226627" y="2802081"/>
+          <a:ext cx="949036" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartOffpageConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805194</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>155660</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F6571D3-1EFA-CAA6-5540-5CF585B791B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520694" y="9143796"/>
+          <a:ext cx="1730188" cy="5351522"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805194</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>108323</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="コネクタ: カギ線 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89CFD43F-1577-509E-CBC3-803C2A755FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="3"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520694" y="10551187"/>
+          <a:ext cx="1730188" cy="3944131"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805194</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>60987</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="38" name="コネクタ: カギ線 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44EE2E49-4AAF-151A-DF42-BD6108EA196C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520694" y="11958578"/>
+          <a:ext cx="1730188" cy="2536740"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>805194</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>13650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>665018</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="コネクタ: カギ線 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49A2DF96-FAE5-674D-9870-5DC5353EECA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="29" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10520694" y="13365968"/>
+          <a:ext cx="1730188" cy="1129350"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>131619</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183574</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="テキスト ボックス 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{094A6690-508C-444A-B6C8-1D84990341D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10782301" y="8686801"/>
+          <a:ext cx="595035" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0CE1327-5832-4B4A-995C-1769FAC77B94}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10841183" y="10079182"/>
+          <a:ext cx="595035" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>提出</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>204356</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>65809</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8702CD43-D5CD-4283-89AB-E1FD26730DCB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10855038" y="11478491"/>
+          <a:ext cx="595035" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>252847</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45028</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="595035" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C1F6443-859B-466C-ACFE-3A345E9BDA87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10903529" y="12912437"/>
+          <a:ext cx="595035" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1"/>
+            <a:t>確定</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>661554</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>90054</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663374</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58DEC580-A326-FFE5-5A8F-2BB40A3519E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5701145" y="3640281"/>
+          <a:ext cx="1820" cy="994314"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -319,7 +3135,72 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+      <a:lstStyle>
+        <a:defPPr algn="ctr">
+          <a:defRPr kumimoji="1" sz="2000" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:defRPr>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -330,13 +3211,1066 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="E6:T19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF19" sqref="AF19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="5.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="5.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="5:20" ht="19.5" thickBot="1"/>
+    <row r="7" spans="5:20" ht="18" customHeight="1">
+      <c r="E7" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="34"/>
+    </row>
+    <row r="8" spans="5:20" ht="18" customHeight="1">
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="37"/>
+    </row>
+    <row r="9" spans="5:20" ht="18" customHeight="1">
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="37"/>
+    </row>
+    <row r="10" spans="5:20" ht="18" customHeight="1">
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="37"/>
+    </row>
+    <row r="11" spans="5:20" ht="18" customHeight="1">
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
+    </row>
+    <row r="12" spans="5:20" ht="18" customHeight="1">
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="37"/>
+    </row>
+    <row r="13" spans="5:20" ht="18" customHeight="1">
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+    </row>
+    <row r="14" spans="5:20" ht="18" customHeight="1">
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="37"/>
+    </row>
+    <row r="15" spans="5:20" ht="18" customHeight="1">
+      <c r="E15" s="35"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="5:20" ht="18" customHeight="1">
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="37"/>
+    </row>
+    <row r="17" spans="5:20" ht="18" customHeight="1">
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+    </row>
+    <row r="18" spans="5:20" ht="18" customHeight="1">
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="37"/>
+    </row>
+    <row r="19" spans="5:20" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="39"/>
+      <c r="S19" s="39"/>
+      <c r="T19" s="40"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E7:T19"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="85" orientation="landscape" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2A3393F-1812-45E3-A313-A173DF056651}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B2:F34"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="J8" sqref="J7:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.75" customWidth="1"/>
+    <col min="3" max="3" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.75" customWidth="1"/>
+    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" s="4" customFormat="1" ht="24.4" customHeight="1">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="7">
+        <v>45027</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="2"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="2:6">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="2:6">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="7" max="33" man="1"/>
+  </colBreaks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C8D9F66-678D-4FB4-AD2A-5A2192F0F827}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="B1:Q85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="2.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" style="1" customWidth="1"/>
+    <col min="3" max="17" width="12.25" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.75" style="1"/>
+    <col min="19" max="19" width="9.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.75" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" ht="19.5" thickBot="1"/>
+    <row r="2" spans="2:17" ht="37.15" customHeight="1">
+      <c r="B2" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="45"/>
+    </row>
+    <row r="3" spans="2:17" ht="38.65" customHeight="1">
+      <c r="B3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="18"/>
+      <c r="P3" s="48">
+        <v>45027</v>
+      </c>
+      <c r="Q3" s="49"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="11"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="13"/>
+      <c r="Q5" s="14"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="13"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="14"/>
+    </row>
+    <row r="7" spans="2:17" ht="30">
+      <c r="B7" s="13"/>
+      <c r="M7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="14"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="13"/>
+      <c r="M8" s="23"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="14"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="13"/>
+      <c r="M9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="2:17" ht="18" customHeight="1">
+      <c r="B10" s="13"/>
+      <c r="M10" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="14"/>
+    </row>
+    <row r="11" spans="2:17" ht="24">
+      <c r="B11" s="13"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="28"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="14"/>
+    </row>
+    <row r="12" spans="2:17" ht="18" customHeight="1">
+      <c r="B12" s="13"/>
+      <c r="M12" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="42"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="14"/>
+    </row>
+    <row r="13" spans="2:17" ht="24">
+      <c r="B13" s="13"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="28"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="14"/>
+    </row>
+    <row r="14" spans="2:17" ht="18" customHeight="1">
+      <c r="B14" s="13"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="42"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="14"/>
+    </row>
+    <row r="15" spans="2:17" ht="18" customHeight="1">
+      <c r="B15" s="13"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="31"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="14"/>
+    </row>
+    <row r="16" spans="2:17" ht="18" customHeight="1">
+      <c r="B16" s="13"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="31"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="14"/>
+    </row>
+    <row r="17" spans="2:17" ht="18" customHeight="1">
+      <c r="B17" s="13"/>
+      <c r="M17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="42"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="14"/>
+    </row>
+    <row r="18" spans="2:17" ht="18" customHeight="1">
+      <c r="B18" s="13"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="31"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="14"/>
+    </row>
+    <row r="19" spans="2:17" ht="18" customHeight="1">
+      <c r="B19" s="13"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="31"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="14"/>
+    </row>
+    <row r="20" spans="2:17" ht="18" customHeight="1">
+      <c r="B20" s="13"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="31"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="14"/>
+    </row>
+    <row r="21" spans="2:17" ht="18" customHeight="1">
+      <c r="B21" s="13"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="31"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="2:17" ht="18" customHeight="1">
+      <c r="B22" s="13"/>
+      <c r="M22" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="42"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="2:17" ht="18" customHeight="1">
+      <c r="B23" s="13"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="31"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="2:17" ht="18" customHeight="1">
+      <c r="B24" s="13"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="31"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="2:17" ht="18" customHeight="1">
+      <c r="B25" s="13"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="31"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="2:17">
+      <c r="B26" s="13"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="B27" s="13"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="2:17">
+      <c r="B28" s="13"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="B29" s="13"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="2:17">
+      <c r="B30" s="13"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="B31" s="13"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="2:17">
+      <c r="B32" s="13"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="2:17">
+      <c r="B33" s="13"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="2:17">
+      <c r="B34" s="13"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="2:17">
+      <c r="B35" s="13"/>
+      <c r="Q35" s="14"/>
+    </row>
+    <row r="36" spans="2:17">
+      <c r="B36" s="13"/>
+      <c r="Q36" s="14"/>
+    </row>
+    <row r="37" spans="2:17">
+      <c r="B37" s="13"/>
+      <c r="Q37" s="14"/>
+    </row>
+    <row r="38" spans="2:17">
+      <c r="B38" s="13"/>
+      <c r="Q38" s="14"/>
+    </row>
+    <row r="39" spans="2:17">
+      <c r="B39" s="13"/>
+      <c r="Q39" s="14"/>
+    </row>
+    <row r="40" spans="2:17">
+      <c r="B40" s="13"/>
+      <c r="Q40" s="14"/>
+    </row>
+    <row r="41" spans="2:17">
+      <c r="B41" s="13"/>
+      <c r="Q41" s="14"/>
+    </row>
+    <row r="42" spans="2:17">
+      <c r="B42" s="13"/>
+      <c r="Q42" s="14"/>
+    </row>
+    <row r="43" spans="2:17">
+      <c r="B43" s="13"/>
+      <c r="Q43" s="14"/>
+    </row>
+    <row r="44" spans="2:17">
+      <c r="B44" s="13"/>
+      <c r="Q44" s="14"/>
+    </row>
+    <row r="45" spans="2:17">
+      <c r="B45" s="13"/>
+      <c r="Q45" s="14"/>
+    </row>
+    <row r="46" spans="2:17">
+      <c r="B46" s="13"/>
+      <c r="Q46" s="14"/>
+    </row>
+    <row r="47" spans="2:17">
+      <c r="B47" s="13"/>
+      <c r="Q47" s="14"/>
+    </row>
+    <row r="48" spans="2:17">
+      <c r="B48" s="13"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="13"/>
+      <c r="P49" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q49" s="14"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="13"/>
+      <c r="Q50" s="14"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="13"/>
+      <c r="Q51" s="14"/>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="13"/>
+      <c r="Q52" s="14"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="13"/>
+      <c r="Q53" s="14"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="13"/>
+      <c r="Q54" s="14"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="13"/>
+      <c r="Q55" s="14"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="13"/>
+      <c r="Q56" s="14"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="13"/>
+      <c r="Q57" s="14"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="13"/>
+      <c r="Q58" s="14"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="13"/>
+      <c r="Q59" s="14"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="13"/>
+      <c r="Q60" s="14"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="13"/>
+      <c r="Q61" s="14"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="13"/>
+      <c r="Q62" s="14"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="13"/>
+      <c r="Q63" s="14"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="13"/>
+      <c r="Q64" s="14"/>
+    </row>
+    <row r="65" spans="2:17">
+      <c r="B65" s="13"/>
+      <c r="Q65" s="14"/>
+    </row>
+    <row r="66" spans="2:17">
+      <c r="B66" s="13"/>
+      <c r="Q66" s="14"/>
+    </row>
+    <row r="67" spans="2:17">
+      <c r="B67" s="13"/>
+      <c r="Q67" s="14"/>
+    </row>
+    <row r="68" spans="2:17">
+      <c r="B68" s="13"/>
+      <c r="Q68" s="14"/>
+    </row>
+    <row r="69" spans="2:17">
+      <c r="B69" s="13"/>
+      <c r="Q69" s="14"/>
+    </row>
+    <row r="70" spans="2:17">
+      <c r="B70" s="13"/>
+      <c r="Q70" s="14"/>
+    </row>
+    <row r="71" spans="2:17">
+      <c r="B71" s="13"/>
+      <c r="Q71" s="14"/>
+    </row>
+    <row r="72" spans="2:17">
+      <c r="B72" s="13"/>
+      <c r="Q72" s="14"/>
+    </row>
+    <row r="73" spans="2:17">
+      <c r="B73" s="13"/>
+      <c r="Q73" s="14"/>
+    </row>
+    <row r="74" spans="2:17">
+      <c r="B74" s="13"/>
+      <c r="Q74" s="14"/>
+    </row>
+    <row r="75" spans="2:17">
+      <c r="B75" s="13"/>
+      <c r="Q75" s="14"/>
+    </row>
+    <row r="76" spans="2:17">
+      <c r="B76" s="13"/>
+      <c r="Q76" s="14"/>
+    </row>
+    <row r="77" spans="2:17">
+      <c r="B77" s="13"/>
+      <c r="Q77" s="14"/>
+    </row>
+    <row r="78" spans="2:17">
+      <c r="B78" s="13"/>
+      <c r="Q78" s="14"/>
+    </row>
+    <row r="79" spans="2:17">
+      <c r="B79" s="13"/>
+      <c r="Q79" s="14"/>
+    </row>
+    <row r="80" spans="2:17">
+      <c r="B80" s="13"/>
+      <c r="Q80" s="14"/>
+    </row>
+    <row r="81" spans="2:17">
+      <c r="B81" s="13"/>
+      <c r="Q81" s="14"/>
+    </row>
+    <row r="82" spans="2:17">
+      <c r="B82" s="13"/>
+      <c r="Q82" s="14"/>
+    </row>
+    <row r="83" spans="2:17">
+      <c r="B83" s="13"/>
+      <c r="Q83" s="14"/>
+    </row>
+    <row r="84" spans="2:17">
+      <c r="B84" s="13"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" spans="2:17" ht="19.5" thickBot="1">
+      <c r="B85" s="15"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="16"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="16"/>
+      <c r="O85" s="16"/>
+      <c r="P85" s="16"/>
+      <c r="Q85" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="M12:N12"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>